--- a/Análisis/HU-criterios de aceptacion 3.xlsx
+++ b/Análisis/HU-criterios de aceptacion 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipe0\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Servidor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50B3AAF-3B3F-4212-9A94-2404BCE6522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D10DB-B16D-4F25-9D5D-786AE71B6B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7E07A48-A25C-4099-815B-3B614BEA8053}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A7E07A48-A25C-4099-815B-3B614BEA8053}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -111,15 +111,9 @@
     <t xml:space="preserve">Se deberá calcular el precio total de parqueo </t>
   </si>
   <si>
-    <t xml:space="preserve">Se deberá mostrar el precio total en la tabla donde se vizualisan los vehiculos registrados </t>
-  </si>
-  <si>
     <t xml:space="preserve">Se deberá dar un estado de activo si el vehiculo aun no ha salido o no se ha liquidado </t>
   </si>
   <si>
-    <t xml:space="preserve">Se deberá dar un estado de inactivo si el vehiculo ha salido o se ha liquidao </t>
-  </si>
-  <si>
     <t xml:space="preserve">El sistema contará con la información que se registre en las casillas al crear el registro del vehiculo </t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t xml:space="preserve">Se muestra que el vehiculo esta inactivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se deberá mostrar el precio total en la tabla donde se vizualizan los vehiculos registrados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se deberá dar un estado de inactivo si el vehiculo ha salido o se ha liquidado </t>
   </si>
 </sst>
 </file>
@@ -403,25 +403,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD56B0-B3D6-482E-A004-0133D483979F}">
   <dimension ref="C3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -769,10 +769,10 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
@@ -784,35 +784,35 @@
       </c>
     </row>
     <row r="4" spans="3:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="5" spans="3:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="4">
         <v>2</v>
       </c>
@@ -820,45 +820,45 @@
         <v>17</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="J6" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="4">
         <v>2</v>
       </c>
@@ -866,23 +866,23 @@
         <v>18</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="8" spans="3:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4">
@@ -892,19 +892,19 @@
         <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="9" spans="3:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="4">
         <v>2</v>
       </c>
@@ -912,23 +912,23 @@
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="10" spans="3:10" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4">
@@ -938,19 +938,19 @@
         <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="11" spans="3:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -958,19 +958,19 @@
         <v>23</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="12" spans="3:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="5">
         <v>3</v>
       </c>
@@ -978,79 +978,79 @@
         <v>24</v>
       </c>
       <c r="H12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="13" spans="3:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="5">
         <v>4</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="14" spans="3:10" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="15" spans="3:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="6">
         <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
